--- a/SizeData.xlsx
+++ b/SizeData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Size:</t>
   </si>
@@ -36,6 +36,36 @@
   </si>
   <si>
     <t>Speedup:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time C++ Edmonds (micro sec) </t>
+  </si>
+  <si>
+    <t>part edmonds</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>Mem improvement</t>
+  </si>
+  <si>
+    <t>Bi-dir BFS</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Dinitz</t>
+  </si>
+  <si>
+    <t>Edmonds-Karp</t>
   </si>
 </sst>
 </file>
@@ -105,6 +135,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Instance sizes compared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -119,7 +174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -137,9 +192,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17923652875534504"/>
+          <c:y val="0.13649762266830204"/>
+          <c:w val="0.78860398598058234"/>
+          <c:h val="0.5801077466899307"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -156,17 +222,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$A$2:$A$21</c:f>
@@ -243,76 +322,75 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>897</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2361</c:v>
+                  <c:v>2328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4628</c:v>
+                  <c:v>4271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7143</c:v>
+                  <c:v>6610</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9659</c:v>
+                  <c:v>9340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13885</c:v>
+                  <c:v>11939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18590</c:v>
+                  <c:v>17091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22711</c:v>
+                  <c:v>22271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27689</c:v>
+                  <c:v>27720</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34431</c:v>
+                  <c:v>34622</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41420</c:v>
+                  <c:v>40780</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47282</c:v>
+                  <c:v>48240</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56763</c:v>
+                  <c:v>55053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66374</c:v>
+                  <c:v>65815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73961</c:v>
+                  <c:v>72782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84753</c:v>
+                  <c:v>83028</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95079</c:v>
+                  <c:v>94481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105777</c:v>
+                  <c:v>102799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>117820</c:v>
+                  <c:v>116361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130302</c:v>
+                  <c:v>132556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
+              <c:f>Blad1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,17 +400,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$A$2:$A$21</c:f>
@@ -404,7 +495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$21</c:f>
+              <c:f>Blad1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -471,7 +562,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -481,12 +571,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="425111712"/>
-        <c:axId val="425110536"/>
-      </c:lineChart>
+        <c:gapWidth val="140"/>
+        <c:overlap val="-10"/>
+        <c:axId val="443940888"/>
+        <c:axId val="443935792"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="425111712"/>
+        <c:axId val="443940888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +605,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -529,7 +620,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425110536"/>
+        <c:crossAx val="443935792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425110536"/>
+        <c:axId val="443935792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -574,7 +665,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -589,13 +680,13 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425111712"/>
+        <c:crossAx val="443940888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -603,7 +694,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2159485264072654E-2"/>
+          <c:y val="0.83349923440376728"/>
+          <c:w val="0.92976225691906611"/>
+          <c:h val="0.15080494547269346"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -617,7 +717,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -657,7 +757,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="nl-NL"/>
     </a:p>
@@ -685,6 +785,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Comparison coding steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -699,7 +824,374 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$28:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mem improvement</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bi-dir BFS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$28:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>299958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16311818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1671341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="570024984"/>
+        <c:axId val="570025376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="570024984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570025376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="570025376"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570024984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Milliseconds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Comparison algorithm FOCS solve speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -725,17 +1217,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time C++ (micro sec) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -747,302 +1228,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>SAP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>Dinitz</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Edmonds-Karp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$21</c:f>
+              <c:f>Blad1!$C$35:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>897</c:v>
+                  <c:v>291601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2361</c:v>
+                  <c:v>569597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9659</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18590</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27689</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34431</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41420</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56763</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66374</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73961</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84753</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95079</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105777</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>117820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time Py (micro sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>125628</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>299958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>474887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>645991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>830157</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1001687</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1241015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1447500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1637365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1869385</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2130758</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2341222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2620444</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2823475</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3118535</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3318133</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3604537</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3897961</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4107701</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4305098</c:v>
+                  <c:v>837143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1273,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="424888264"/>
-        <c:axId val="424889832"/>
+        <c:axId val="169066456"/>
+        <c:axId val="169068808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424888264"/>
+        <c:axId val="169066456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1305,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1105,7 +1320,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424889832"/>
+        <c:crossAx val="169068808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,9 +1328,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424889832"/>
+        <c:axId val="169068808"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1150,7 +1364,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1165,9 +1379,67 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424888264"/>
+        <c:crossAx val="169066456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="nl-NL"/>
+                    <a:t>Milliseconds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1177,38 +1449,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1233,7 +1473,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="nl-NL"/>
     </a:p>
@@ -1326,8 +1566,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1435,11 +1715,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1450,11 +1725,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1486,9 +1756,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1843,7 +2110,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2047,6 +2314,511 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2349,20 +3121,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221456</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525518</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2379,20 +3151,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329712</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2402,6 +3174,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584638</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>34815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2673,20 +3475,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2694,310 +3498,646 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C2">
+        <v>426</v>
+      </c>
+      <c r="D2">
         <v>125628</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <f t="shared" ref="E2:E21" si="0">D2/B2</f>
+        <v>140.83856502242153</v>
+      </c>
+      <c r="F2">
         <f>C2/B2</f>
-        <v>140.05351170568562</v>
+        <v>0.47757847533632286</v>
+      </c>
+      <c r="G2">
+        <f>E2*(1-F2)</f>
+        <v>73.577097870457891</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>2361</v>
+        <v>2328</v>
       </c>
       <c r="C3">
+        <v>1205</v>
+      </c>
+      <c r="D3">
         <v>299958</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
-        <v>127.04701397712833</v>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>128.8479381443299</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">C3/B3</f>
+        <v>0.5176116838487973</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="2">E3*F3</f>
+        <v>66.693198223332274</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
-        <v>4628</v>
+        <v>4271</v>
       </c>
       <c r="C4">
+        <v>2412</v>
+      </c>
+      <c r="D4">
         <v>474887</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>102.61171132238547</v>
+        <v>111.18871458674784</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.56473893701709199</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>62.792596484016805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5">
-        <v>7143</v>
+        <v>6610</v>
       </c>
       <c r="C5">
+        <v>4036</v>
+      </c>
+      <c r="D5">
         <v>645991</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>90.436931261374767</v>
+        <v>97.729349470499244</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.61059001512859301</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>59.672564971699686</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
-        <v>9659</v>
+        <v>9340</v>
       </c>
       <c r="C6">
+        <v>6028</v>
+      </c>
+      <c r="D6">
         <v>830157</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>85.946474790350962</v>
+        <v>88.881905781584578</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.64539614561027836</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>57.364039405930605</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
       <c r="B7">
-        <v>13885</v>
+        <v>11939</v>
       </c>
       <c r="C7">
+        <v>8734</v>
+      </c>
+      <c r="D7">
         <v>1001687</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>72.141663665826428</v>
+        <v>83.900410419633133</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.73155205628612108</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>61.377517765732115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
       <c r="B8">
-        <v>18590</v>
+        <v>17091</v>
       </c>
       <c r="C8">
+        <v>11778</v>
+      </c>
+      <c r="D8">
         <v>1241015</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>66.757127487896724</v>
+        <v>72.612193552161955</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.6891346322625943</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>50.039577301349453</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
       <c r="B9">
-        <v>22711</v>
+        <v>22271</v>
       </c>
       <c r="C9">
+        <v>15736</v>
+      </c>
+      <c r="D9">
         <v>1447500</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>63.73563471445555</v>
+        <v>64.99483633424633</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.70656908086749581</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>45.923341769821747</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
       <c r="B10">
-        <v>27689</v>
+        <v>27720</v>
       </c>
       <c r="C10">
+        <v>20277</v>
+      </c>
+      <c r="D10">
         <v>1637365</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>59.134132688071077</v>
+        <v>59.068001443001442</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.73149350649350653</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>43.207859497104629</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>34431</v>
+        <v>34622</v>
       </c>
       <c r="C11">
+        <v>25080</v>
+      </c>
+      <c r="D11">
         <v>1869385</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>54.293659783334789</v>
+        <v>53.994136676101903</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.72439489342036856</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>39.113076882809651</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
       <c r="B12">
-        <v>41420</v>
+        <v>40780</v>
       </c>
       <c r="C12">
+        <v>31396</v>
+      </c>
+      <c r="D12">
         <v>2130758</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>51.442732979237086</v>
+        <v>52.250073565473272</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.76988719960765084</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>40.226662816615963</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
       <c r="B13">
-        <v>47282</v>
+        <v>48240</v>
       </c>
       <c r="C13">
+        <v>37298</v>
+      </c>
+      <c r="D13">
         <v>2341222</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>49.516137219237763</v>
+        <v>48.532794361525703</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.77317578772802653</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>37.52438151111496</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>56763</v>
+        <v>55053</v>
       </c>
       <c r="C14">
+        <v>43406</v>
+      </c>
+      <c r="D14">
         <v>2620444</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>46.16464950760178</v>
+        <v>47.598568652026231</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.78844023032350641</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>37.528626431072794</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
       <c r="B15">
-        <v>66374</v>
+        <v>65815</v>
       </c>
       <c r="C15">
+        <v>52150</v>
+      </c>
+      <c r="D15">
         <v>2823475</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>42.538870642118901</v>
+        <v>42.900174732203908</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.79237255944693463</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>33.992921253277125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
       <c r="B16">
-        <v>73961</v>
+        <v>72782</v>
       </c>
       <c r="C16">
+        <v>58483</v>
+      </c>
+      <c r="D16">
         <v>3118535</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>42.164586741661147</v>
+        <v>42.847613420900771</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.80353658871699052</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>34.429625122894947</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
       <c r="B17">
-        <v>84753</v>
+        <v>83028</v>
       </c>
       <c r="C17">
+        <v>67303</v>
+      </c>
+      <c r="D17">
         <v>3318133</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>39.150625936545019</v>
+        <v>39.96402418461242</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.81060606060606055</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>32.395080210254008</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
       <c r="B18">
-        <v>95079</v>
+        <v>94481</v>
       </c>
       <c r="C18">
+        <v>77508</v>
+      </c>
+      <c r="D18">
         <v>3604537</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>37.91096877333586</v>
+        <v>38.15091923243827</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.82035541537451973</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>31.297313193846652</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
       <c r="B19">
-        <v>105777</v>
+        <v>102799</v>
       </c>
       <c r="C19">
+        <v>85228</v>
+      </c>
+      <c r="D19">
         <v>3897961</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>36.850742599998107</v>
+        <v>37.918277415149952</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.82907421278417104</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>31.437065998097257</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
       <c r="B20">
-        <v>117820</v>
+        <v>116361</v>
       </c>
       <c r="C20">
+        <v>96281</v>
+      </c>
+      <c r="D20">
         <v>4107701</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>34.864208114072312</v>
+        <v>35.301355265080225</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.82743359029228003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>29.209527129168613</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
       <c r="B21">
-        <v>130302</v>
+        <v>132556</v>
       </c>
       <c r="C21">
+        <v>111969</v>
+      </c>
+      <c r="D21">
         <v>4305098</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>33.039385427698733</v>
+        <v>32.477579287244637</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.84469205467877728</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>27.433553179135572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f xml:space="preserve"> 2.0957*C24 ^3+ 250.55*C24^2 + 680.7*C24 - 272.96</f>
+        <v>206083.60250000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>299958</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>16311818</v>
+      </c>
+      <c r="C29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1671341</v>
+      </c>
+      <c r="C30">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>39588</v>
+      </c>
+      <c r="C31">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>10117</v>
+      </c>
+      <c r="C32">
+        <v>29.684999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>2361</v>
+      </c>
+      <c r="C33">
+        <v>127.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <v>291601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>569597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+      <c r="C37">
+        <v>837143</v>
       </c>
     </row>
   </sheetData>
